--- a/ykodama/ddbj_packages/excel/MIGS.ba.built.4.0.xlsx
+++ b/ykodama/ddbj_packages/excel/MIGS.ba.built.4.0.xlsx
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Unique name for each sample (used as an ID)</t>
+          <t>The sample name is a name that you choose for the sample, it works as an ID.  Each sample name must be unique in samples submitted from a submission account.</t>
         </r>
       </text>
     </comment>
@@ -41,7 +41,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Unique title for each sample</t>
+          <t>Sample title should be short and informative. Each sample title must be unique in a submission.  Examples: 1) Escherichia coli O104:H4 str. C227-11 clinical isolate 2010_333_NC-6;  2) CD8+ T cells from female TSG6-knockout BALB/c mouse;  3) Human metagenome isolated from urine of healthy female.</t>
         </r>
       </text>
     </comment>
@@ -54,7 +54,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Brief description</t>
+          <t>A brief description for the sample.</t>
         </r>
       </text>
     </comment>
@@ -67,7 +67,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Organism name in the NCBI Taxonomy database</t>
+          <t>The most descriptive organism name for this sample (to the species, if relevant) in the NCBI Taxonomy database, http://www.ncbi.nlm.nih.gov/taxonomy If it is not in the database, provide as much information about the organism as possible and the DDBJ staff apply a new organism name to NCBI Taxonomy.</t>
         </r>
       </text>
     </comment>
@@ -80,7 +80,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>NCBI Taxonomy identifier</t>
+          <t>NCBI Taxonomy identifier. This is appropriate for individual organisms, some metagenomes and environmental samples (http://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=12908&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock).  If it is not in the database, enter a tentative ID (e.g., 1). The DDBJ staff apply a new organism name to NCBI Taxonomy, and then the tentative ID is replaced by an assigned TaxID.</t>
         </r>
       </text>
     </comment>
@@ -110,6 +110,58 @@
         </r>
       </text>
     </comment>
+    <comment ref="H13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>actual mass of water vapor - mh20 - present in the air water vapor mixture</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>temperature of the air at the time of sampling</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>primary function for which a building or discrete part of a building is intended to be used</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>location (geography) where a building is set</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="L13" authorId="0">
       <text>
         <r>
@@ -132,7 +184,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Time of sampling (eg, 2008-01-23, 2008-01)</t>
+          <t>Time of sampling (single instance or interval, eg., 2008-01-23T19:23:10, 2008-01-23, 2008-01, 2008, 1952-10-21T11:43Z/1952-10-21T17:43Z, 1952-10-21/1953-02-15, 1952-10/1953-02, 1952/1953)</t>
         </r>
       </text>
     </comment>
@@ -145,7 +197,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Descriptor of the broad ecological context of a sample</t>
+          <t>Descriptor of the broad ecological context of a sample. Examples include: desert, taiga or deciduous woodland. FAQ, http://trace.ddbj.nig.ac.jp/biosample/faq_e.html#biome-feature-material EnvO (v 2013-06-14) terms can be found via the link: http://www.environmentontology.org/Browse-EnvO</t>
         </r>
       </text>
     </comment>
@@ -158,7 +210,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Descriptor of the local environment.</t>
+          <t>Descriptor of the local environment. Examples include: harbor, cliff, or lake. FAQ, http://trace.ddbj.nig.ac.jp/biosample/faq_e.html#biome-feature-material EnvO (v 2013-06-14) terms can be found via the link: http://www.environmentontology.org/Browse-EnvO</t>
         </r>
       </text>
     </comment>
@@ -171,7 +223,20 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Material that was displaced by the sample, or material in which a sample was embedded, prior to the sampling event.</t>
+          <t>Material that was displaced by the sample, or material in which a sample was embedded, prior to the sampling event. Examples include: air, soil, or water. FAQ, http://trace.ddbj.nig.ac.jp/biosample/faq_e.html#biome-feature-material EnvO (v 2013-06-14) terms can be found via the link: http://www.environmentontology.org/Browse-EnvO</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>device which removes solid particulates or airborne molecular contaminants</t>
         </r>
       </text>
     </comment>
@@ -184,7 +249,33 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Geographical origin of the sample (eg, "Japan:Kanagawa, Hakone, Lake Ashi")</t>
+          <t xml:space="preserve">Geographical origin of the sample; use the appropriate name from the list, http://www.ddbj.nig.ac.jp/sub/country-e.html. Use a colon to separate the country or ocean from more detailed information about the location, eg "Japan:Kanagawa, Hakone, Lake Ashi" </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>methods of conditioning or heating a room or building</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>a distinguishable space within a structure, the purpose for which discrete areas of a building is used</t>
         </r>
       </text>
     </comment>
@@ -197,7 +288,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Pubmed ID, DOI or URL of publication for isolation and growth condition specifications of the organism/material</t>
+          <t>Publication reference in the form of pubmed ID, DOI or URL for isolation and growth condition specifications of the organism/material</t>
         </r>
       </text>
     </comment>
@@ -210,7 +301,20 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>The geographical coordinates of the location in decimal degrees latitude and longitude (eg, 47.94 N 28.12 W)</t>
+          <t>The geographical coordinates of the location where the sample was collected. Specify as decimal degrees latitude and longitude in format "d[d.dddd] N|S d[dd.dddd] W|E", eg, 47.94 N 28.12 W</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>application of light to achieve some practical or aesthetic effect. Lighting includes the use of both artificial light sources such as lamps and light fixtures, as well as natural illumination by capturing daylight. Can also include absence of light</t>
         </r>
       </text>
     </comment>
@@ -227,6 +331,32 @@
         </r>
       </text>
     </comment>
+    <comment ref="Y13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>number of occupants present at time of sample within the given space</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>average number of occupants at time of sampling per square footage</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="AA13" authorId="0">
       <text>
         <r>
@@ -236,7 +366,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>total count of any organism per gram or volume of sample, should include name of organism followed by count</t>
+          <t>total count of any organism per gram or volume of sample, should include name of organism followed by count; can include multiple organism counts</t>
         </r>
       </text>
     </comment>
@@ -253,6 +383,45 @@
         </r>
       </text>
     </comment>
+    <comment ref="AC13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>partial vapor and air pressure, density of the vapor and air, or by the actual mass of the vapor and air</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>customary or normal state of the space</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AE13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>customary or normal density of occupants</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="AF13" authorId="0">
       <text>
         <r>
@@ -275,7 +444,20 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Free-living or from host</t>
+          <t>Free-living or from host (define relationship)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AH13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>temperature to which a given parcel of humid air must be cooled, at constant barometric pressure, for water vapor to condense into water.</t>
         </r>
       </text>
     </comment>
@@ -288,7 +470,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Traits like antibiotic resistance/xenobiotic degration phenotypes</t>
+          <t>Traits like antibiotic resistance/xenobiotic degration phenotypes/converting phage genes</t>
         </r>
       </text>
     </comment>
@@ -327,7 +509,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Information regarding health state of the individual</t>
+          <t>Health or disease status of sample at time of collection</t>
         </r>
       </text>
     </comment>
@@ -340,7 +522,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>The natural (as opposed to laboratory) host to the organism from which the sample was obtained</t>
+          <t>The natural (as opposed to laboratory) host to the organism from which the sample was obtained. Use the full taxonomic name, eg, "Homo sapiens".</t>
         </r>
       </text>
     </comment>
@@ -353,7 +535,20 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>NCBI taxonomy ID of the host</t>
+          <t>NCBI taxonomy ID of the host, e.g. 9606</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AO13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>type of indoor surface</t>
         </r>
       </text>
     </comment>
@@ -366,7 +561,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Describes the physical, environmental and/or local geographical source of the biological sample</t>
+          <t>Describes the physical, environmental and/or local geographical source of the biological sample from which the sample was derived.</t>
         </r>
       </text>
     </comment>
@@ -379,7 +574,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>A locus tag prefix for an annotated genome</t>
+          <t>A locus tag prefix required for an annotated genome, http://www.ddbj.nig.ac.jp/sub/locus_tag-e.html</t>
         </r>
       </text>
     </comment>
@@ -448,6 +643,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="AW13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>method by which samples are sorted</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="AX13" authorId="0">
       <text>
         <r>
@@ -470,7 +678,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>unique identifier assigned to a material sample used</t>
+          <t>unique identifier assigned to a material sample used for extracting nucleic acids, and subsequent sequencing. The identifier can refer either to the original material collected or to any derived sub-samples.</t>
         </r>
       </text>
     </comment>
@@ -484,6 +692,97 @@
             <family val="2"/>
           </rPr>
           <t>Information about the genetic distinctness of the lineage (eg., biovar, serovar)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BA13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>substructure or under building is that largely hidden section of the building which is built off the foundations to the ground floor level</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BB13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>contaminant identified on surface</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BC13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>surfaces: water activity as a function of air and material moisture</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BD13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>surface materials at the point of sampling</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BE13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>water held on a surface</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BF13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>pH measurement of surface</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BG13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>temperature of the surface at the time of sampling</t>
         </r>
       </text>
     </comment>

--- a/ykodama/ddbj_packages/excel/MIGS.ba.built.4.0.xlsx
+++ b/ykodama/ddbj_packages/excel/MIGS.ba.built.4.0.xlsx
@@ -19,7 +19,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="A13" authorId="0">
+    <comment ref="A15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -32,7 +32,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B13" authorId="0">
+    <comment ref="B15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -45,7 +45,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C13" authorId="0">
+    <comment ref="C15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -58,7 +58,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D13" authorId="0">
+    <comment ref="D15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -71,7 +71,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E13" authorId="0">
+    <comment ref="E15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -84,7 +84,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F13" authorId="0">
+    <comment ref="F15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -97,7 +97,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="G13" authorId="0">
+    <comment ref="G15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>A locus tag prefix required for an annotated genome, http://www.ddbj.nig.ac.jp/sub/locus_tag-e.html</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -110,7 +123,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H13" authorId="0">
+    <comment ref="I15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -123,7 +136,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I13" authorId="0">
+    <comment ref="J15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -136,7 +149,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J13" authorId="0">
+    <comment ref="K15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -149,7 +162,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K13" authorId="0">
+    <comment ref="L15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -162,7 +175,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L13" authorId="0">
+    <comment ref="M15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -175,7 +188,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M13" authorId="0">
+    <comment ref="N15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -188,7 +201,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N13" authorId="0">
+    <comment ref="O15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -201,7 +214,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O13" authorId="0">
+    <comment ref="P15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -214,7 +227,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P13" authorId="0">
+    <comment ref="Q15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -227,7 +240,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q13" authorId="0">
+    <comment ref="R15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -240,7 +253,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R13" authorId="0">
+    <comment ref="S15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -253,7 +266,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S13" authorId="0">
+    <comment ref="T15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -266,7 +279,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T13" authorId="0">
+    <comment ref="U15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -279,7 +292,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U13" authorId="0">
+    <comment ref="V15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -292,7 +305,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V13" authorId="0">
+    <comment ref="W15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -305,7 +318,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W13" authorId="0">
+    <comment ref="X15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -318,7 +331,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X13" authorId="0">
+    <comment ref="Y15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -331,7 +344,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y13" authorId="0">
+    <comment ref="Z15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -344,7 +357,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z13" authorId="0">
+    <comment ref="AA15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -357,7 +370,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA13" authorId="0">
+    <comment ref="AB15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -370,7 +383,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB13" authorId="0">
+    <comment ref="AC15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -383,7 +396,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC13" authorId="0">
+    <comment ref="AD15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -396,7 +409,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD13" authorId="0">
+    <comment ref="AE15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -409,7 +422,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE13" authorId="0">
+    <comment ref="AF15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -422,7 +435,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF13" authorId="0">
+    <comment ref="AG15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -432,370 +445,6 @@
             <family val="2"/>
           </rPr>
           <t>ventilation system used in the sampled premises</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AG13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Free-living or from host (define relationship)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AH13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>temperature to which a given parcel of humid air must be cooled, at constant barometric pressure, for water vapor to condense into water.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AI13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Traits like antibiotic resistance/xenobiotic degration phenotypes/converting phage genes</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AJ13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Estimated size of genome</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AK13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Plasmids that have significance phenotypic consequence</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AL13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Health or disease status of sample at time of collection</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AM13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>The natural (as opposed to laboratory) host to the organism from which the sample was obtained. Use the full taxonomic name, eg, "Homo sapiens".</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AN13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>NCBI taxonomy ID of the host, e.g. 9606</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AO13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>type of indoor surface</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AP13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Describes the physical, environmental and/or local geographical source of the biological sample from which the sample was derived.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AQ13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>A locus tag prefix required for an annotated genome, http://www.ddbj.nig.ac.jp/sub/locus_tag-e.html</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AR13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>To what is the entity pathogenic</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AS13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Aerobic or anaerobic</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AT13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Method or device employed for collecting sample</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AU13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Processing applied to the sample during or after isolation</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AV13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Amount or size of sample (volume, mass or area) that was collected</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AW13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>method by which samples are sorted</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AX13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>volume (mL) or weight (g) of sample processed for DNA extraction</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AY13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>unique identifier assigned to a material sample used for extracting nucleic acids, and subsequent sequencing. The identifier can refer either to the original material collected or to any derived sub-samples.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AZ13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Information about the genetic distinctness of the lineage (eg., biovar, serovar)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="BA13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>substructure or under building is that largely hidden section of the building which is built off the foundations to the ground floor level</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="BB13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>contaminant identified on surface</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="BC13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>surfaces: water activity as a function of air and material moisture</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="BD13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>surface materials at the point of sampling</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="BE13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>water held on a surface</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="BF13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>pH measurement of surface</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="BG13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>temperature of the surface at the time of sampling</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="BH13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Feeding position in food chain (eg., chemolithotroph)</t>
         </r>
       </text>
     </comment>
@@ -804,7 +453,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t xml:space="preserve"># This is a submission template for batch deposit of 'MIGS: cultured bacteria/archaea, built; version 4.0' samples to the DDBJ BioSample database (http://trace.ddbj.nig.ac.jp/biosample)._x000D_
 </t>
@@ -880,6 +529,9 @@
     <t>bioproject_accession</t>
   </si>
   <si>
+    <t>locus_tag_prefix</t>
+  </si>
+  <si>
     <t>strain</t>
   </si>
   <si>
@@ -956,90 +608,6 @@
   </si>
   <si>
     <t>ventilation_type</t>
-  </si>
-  <si>
-    <t>biotic_relationship</t>
-  </si>
-  <si>
-    <t>dew_point</t>
-  </si>
-  <si>
-    <t>encoded_traits</t>
-  </si>
-  <si>
-    <t>estimated_size</t>
-  </si>
-  <si>
-    <t>extrachrom_elements</t>
-  </si>
-  <si>
-    <t>health_state</t>
-  </si>
-  <si>
-    <t>host</t>
-  </si>
-  <si>
-    <t>host_taxid</t>
-  </si>
-  <si>
-    <t>indoor_surf</t>
-  </si>
-  <si>
-    <t>isolation_source</t>
-  </si>
-  <si>
-    <t>locus_tag_prefix</t>
-  </si>
-  <si>
-    <t>pathogenicity</t>
-  </si>
-  <si>
-    <t>rel_to_oxygen</t>
-  </si>
-  <si>
-    <t>samp_collect_device</t>
-  </si>
-  <si>
-    <t>samp_mat_process</t>
-  </si>
-  <si>
-    <t>samp_size</t>
-  </si>
-  <si>
-    <t>samp_sort_meth</t>
-  </si>
-  <si>
-    <t>samp_vol_we_dna_ext</t>
-  </si>
-  <si>
-    <t>source_material_id</t>
-  </si>
-  <si>
-    <t>subspecf_gen_lin</t>
-  </si>
-  <si>
-    <t>substructure_type</t>
-  </si>
-  <si>
-    <t>surf_air_cont</t>
-  </si>
-  <si>
-    <t>surf_humidity</t>
-  </si>
-  <si>
-    <t>surf_material</t>
-  </si>
-  <si>
-    <t>surf_moisture</t>
-  </si>
-  <si>
-    <t>surf_moisture_ph</t>
-  </si>
-  <si>
-    <t>surf_temp</t>
-  </si>
-  <si>
-    <t>trophic_level</t>
   </si>
 </sst>
 </file>
@@ -1445,7 +1013,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:GS14"/>
+  <dimension ref="A1:GS15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1454,251 +1022,175 @@
     <col min="1" max="201" width="20.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60">
+    <row r="1" spans="1:33">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:60">
+    <row r="2" spans="1:33">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:60" s="3" customFormat="1">
+    <row r="3" spans="1:33" s="3" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:60" s="4" customFormat="1">
+    <row r="4" spans="1:33" s="4" customFormat="1">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:60" s="5" customFormat="1">
+    <row r="5" spans="1:33" s="5" customFormat="1">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:60">
+    <row r="6" spans="1:33">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:60">
+    <row r="7" spans="1:33">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:60">
+    <row r="8" spans="1:33">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:60">
+    <row r="9" spans="1:33">
       <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:60">
+    <row r="10" spans="1:33">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:60">
+    <row r="11" spans="1:33">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:60">
+    <row r="12" spans="1:33">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:60">
-      <c r="A13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="M13" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="N13" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="R13" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="S13" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="T13" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="U13" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="V13" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="W13" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="X13" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y13" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z13" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA13" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB13" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC13" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD13" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE13" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="AF13" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG13" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH13" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="AI13" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="AJ13" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="AK13" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="AL13" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AM13" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="AN13" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="AO13" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="AP13" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="AQ13" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AR13" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS13" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT13" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="AU13" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="AV13" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="AW13" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="AX13" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="AY13" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AZ13" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="BA13" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="BB13" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="BC13" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="BD13" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="BE13" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="BF13" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="BG13" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="BH13" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:60">
+    <row r="13" spans="1:33">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33">
       <c r="A14" s="2" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33">
+      <c r="A15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="R15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="S15" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="T15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="U15" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="V15" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="W15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="X15" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB15" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC15" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD15" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE15" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF15" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG15" s="7" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/ykodama/ddbj_packages/excel/MIGS.ba.built.4.0.xlsx
+++ b/ykodama/ddbj_packages/excel/MIGS.ba.built.4.0.xlsx
@@ -614,6 +614,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="@"/>
+  </numFmts>
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -698,7 +701,7 @@
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">

--- a/ykodama/ddbj_packages/excel/MIGS.ba.built.4.0.xlsx
+++ b/ykodama/ddbj_packages/excel/MIGS.ba.built.4.0.xlsx
@@ -106,345 +106,696 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t>microbial or eukaryotic strain name</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>actual mass of water vapor - mh20 - present in the air water vapor mixture</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>temperature of the air at the time of sampling</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>primary function for which a building or discrete part of a building is intended to be used</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>location (geography) where a building is set</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>carbon dioxide (gas) amount or concentration at the time of sampling</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Time of sampling (single instance or interval, eg., 2008-01-23T19:23:10, 2008-01-23, 2008-01, 2008, 1952-10-21T11:43Z/1952-10-21T17:43Z, 1952-10-21/1953-02-15, 1952-10/1953-02, 1952/1953)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Descriptor of the broad ecological context of a sample. Examples include: desert, taiga or deciduous woodland. FAQ, http://trace.ddbj.nig.ac.jp/biosample/faq_e.html#biome-feature-material EnvO (v 2013-06-14) terms can be found via the link: http://www.environmentontology.org/Browse-EnvO</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Descriptor of the local environment. Examples include: harbor, cliff, or lake. FAQ, http://trace.ddbj.nig.ac.jp/biosample/faq_e.html#biome-feature-material EnvO (v 2013-06-14) terms can be found via the link: http://www.environmentontology.org/Browse-EnvO</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Material that was displaced by the sample, or material in which a sample was embedded, prior to the sampling event. Examples include: air, soil, or water. FAQ, http://trace.ddbj.nig.ac.jp/biosample/faq_e.html#biome-feature-material EnvO (v 2013-06-14) terms can be found via the link: http://www.environmentontology.org/Browse-EnvO</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>device which removes solid particulates or airborne molecular contaminants</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Geographical origin of the sample; use the appropriate name from the list, http://www.ddbj.nig.ac.jp/sub/country-e.html. Use a colon to separate the country or ocean from more detailed information about the location, eg "Japan:Kanagawa, Hakone, Lake Ashi" </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>methods of conditioning or heating a room or building</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>a distinguishable space within a structure, the purpose for which discrete areas of a building is used</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Publication reference in the form of pubmed ID, DOI or URL for isolation and growth condition specifications of the organism/material</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The geographical coordinates of the location where the sample was collected. Specify as decimal degrees latitude and longitude in format "d[d.dddd] N|S d[dd.dddd] W|E", eg, 47.94 N 28.12 W</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>application of light to achieve some practical or aesthetic effect. Lighting includes the use of both artificial light sources such as lamps and light fixtures, as well as natural illumination by capturing daylight. Can also include absence of light</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Reports the number of replicons in a nuclear genome of eukaryotes, in the genome of a bacterium or archaea or the number of segments in a segmented virus. Always applied to the haploid chromosome count of a eukaryote</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>number of occupants present at time of sample within the given space</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>average number of occupants at time of sampling per square footage</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>total count of any organism per gram or volume of sample, should include name of organism followed by count; can include multiple organism counts</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Primary publication or genome report in the form of pubmed ID, DOI or URL</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AC15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>partial vapor and air pressure, density of the vapor and air, or by the actual mass of the vapor and air</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>customary or normal state of the space</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AE15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>customary or normal density of occupants</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AF15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ventilation system used in the sampled premises</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AG15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Free-living or from host (define relationship)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AH15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>temperature to which a given parcel of humid air must be cooled, at constant barometric pressure, for water vapor to condense into water.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AI15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Traits like antibiotic resistance/xenobiotic degration phenotypes/converting phage genes</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AJ15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Estimated size of genome</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AK15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Plasmids that have significance phenotypic consequence</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AL15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Health or disease status of sample at time of collection</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AM15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The natural (as opposed to laboratory) host to the organism from which the sample was obtained. Use the full taxonomic name, eg, "Homo sapiens".</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AN15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>NCBI taxonomy ID of the host, e.g. 9606</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AO15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>type of indoor surface</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AP15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Describes the physical, environmental and/or local geographical source of the biological sample from which the sample was derived.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AQ15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t>A locus tag prefix required for an annotated genome, http://www.ddbj.nig.ac.jp/sub/locus_tag-e.html</t>
         </r>
       </text>
     </comment>
-    <comment ref="H15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>microbial or eukaryotic strain name</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>actual mass of water vapor - mh20 - present in the air water vapor mixture</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>temperature of the air at the time of sampling</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>primary function for which a building or discrete part of a building is intended to be used</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>location (geography) where a building is set</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>carbon dioxide (gas) amount or concentration at the time of sampling</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Time of sampling (single instance or interval, eg., 2008-01-23T19:23:10, 2008-01-23, 2008-01, 2008, 1952-10-21T11:43Z/1952-10-21T17:43Z, 1952-10-21/1953-02-15, 1952-10/1953-02, 1952/1953)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Descriptor of the broad ecological context of a sample. Examples include: desert, taiga or deciduous woodland. FAQ, http://trace.ddbj.nig.ac.jp/biosample/faq_e.html#biome-feature-material EnvO (v 2013-06-14) terms can be found via the link: http://www.environmentontology.org/Browse-EnvO</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Descriptor of the local environment. Examples include: harbor, cliff, or lake. FAQ, http://trace.ddbj.nig.ac.jp/biosample/faq_e.html#biome-feature-material EnvO (v 2013-06-14) terms can be found via the link: http://www.environmentontology.org/Browse-EnvO</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Q15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Material that was displaced by the sample, or material in which a sample was embedded, prior to the sampling event. Examples include: air, soil, or water. FAQ, http://trace.ddbj.nig.ac.jp/biosample/faq_e.html#biome-feature-material EnvO (v 2013-06-14) terms can be found via the link: http://www.environmentontology.org/Browse-EnvO</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="R15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>device which removes solid particulates or airborne molecular contaminants</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="S15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Geographical origin of the sample; use the appropriate name from the list, http://www.ddbj.nig.ac.jp/sub/country-e.html. Use a colon to separate the country or ocean from more detailed information about the location, eg "Japan:Kanagawa, Hakone, Lake Ashi" </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="T15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>methods of conditioning or heating a room or building</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="U15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>a distinguishable space within a structure, the purpose for which discrete areas of a building is used</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="V15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Publication reference in the form of pubmed ID, DOI or URL for isolation and growth condition specifications of the organism/material</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="W15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>The geographical coordinates of the location where the sample was collected. Specify as decimal degrees latitude and longitude in format "d[d.dddd] N|S d[dd.dddd] W|E", eg, 47.94 N 28.12 W</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="X15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>application of light to achieve some practical or aesthetic effect. Lighting includes the use of both artificial light sources such as lamps and light fixtures, as well as natural illumination by capturing daylight. Can also include absence of light</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Y15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Reports the number of replicons in a nuclear genome of eukaryotes, in the genome of a bacterium or archaea or the number of segments in a segmented virus. Always applied to the haploid chromosome count of a eukaryote</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Z15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>number of occupants present at time of sample within the given space</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AA15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>average number of occupants at time of sampling per square footage</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AB15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>total count of any organism per gram or volume of sample, should include name of organism followed by count; can include multiple organism counts</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AC15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Primary publication or genome report in the form of pubmed ID, DOI or URL</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AD15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>partial vapor and air pressure, density of the vapor and air, or by the actual mass of the vapor and air</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AE15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>customary or normal state of the space</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AF15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>customary or normal density of occupants</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AG15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>ventilation system used in the sampled premises</t>
+    <comment ref="AR15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>To what is the entity pathogenic</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AS15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Aerobic or anaerobic</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AT15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Method or device employed for collecting sample</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AU15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Processing applied to the sample during or after isolation</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AV15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Amount or size of sample (volume, mass or area) that was collected</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AW15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>method by which samples are sorted</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AX15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>volume (mL) or weight (g) of sample processed for DNA extraction</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AY15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>unique identifier assigned to a material sample used for extracting nucleic acids, and subsequent sequencing. The identifier can refer either to the original material collected or to any derived sub-samples.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AZ15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Information about the genetic distinctness of the lineage (eg., biovar, serovar)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BA15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>substructure or under building is that largely hidden section of the building which is built off the foundations to the ground floor level</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BB15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>contaminant identified on surface</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BC15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>surfaces: water activity as a function of air and material moisture</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BD15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>surface materials at the point of sampling</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BE15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>water held on a surface</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BF15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>pH measurement of surface</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BG15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>temperature of the surface at the time of sampling</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BH15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Feeding position in food chain (eg., chemolithotroph)</t>
         </r>
       </text>
     </comment>
@@ -453,7 +804,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t xml:space="preserve"># This is a submission template for batch deposit of 'MIGS: cultured bacteria/archaea, built; version 4.0' samples to the DDBJ BioSample database (http://trace.ddbj.nig.ac.jp/biosample)._x000D_
 </t>
@@ -529,85 +880,166 @@
     <t>bioproject_accession</t>
   </si>
   <si>
+    <t>strain</t>
+  </si>
+  <si>
+    <t>abs_air_humidity</t>
+  </si>
+  <si>
+    <t>air_temp</t>
+  </si>
+  <si>
+    <t>build_occup_type</t>
+  </si>
+  <si>
+    <t>building_setting</t>
+  </si>
+  <si>
+    <t>carb_dioxide</t>
+  </si>
+  <si>
+    <t>collection_date</t>
+  </si>
+  <si>
+    <t>env_biome</t>
+  </si>
+  <si>
+    <t>env_feature</t>
+  </si>
+  <si>
+    <t>env_material</t>
+  </si>
+  <si>
+    <t>filter_type</t>
+  </si>
+  <si>
+    <t>geo_loc_name</t>
+  </si>
+  <si>
+    <t>heat_cool_type</t>
+  </si>
+  <si>
+    <t>indoor_space</t>
+  </si>
+  <si>
+    <t>isol_growth_condt</t>
+  </si>
+  <si>
+    <t>lat_lon</t>
+  </si>
+  <si>
+    <t>light_type</t>
+  </si>
+  <si>
+    <t>num_replicons</t>
+  </si>
+  <si>
+    <t>occup_samp</t>
+  </si>
+  <si>
+    <t>occupant_dens_samp</t>
+  </si>
+  <si>
+    <t>organism_count</t>
+  </si>
+  <si>
+    <t>ref_biomaterial</t>
+  </si>
+  <si>
+    <t>rel_air_humidity</t>
+  </si>
+  <si>
+    <t>space_typ_state</t>
+  </si>
+  <si>
+    <t>typ_occupant_dens</t>
+  </si>
+  <si>
+    <t>ventilation_type</t>
+  </si>
+  <si>
+    <t>biotic_relationship</t>
+  </si>
+  <si>
+    <t>dew_point</t>
+  </si>
+  <si>
+    <t>encoded_traits</t>
+  </si>
+  <si>
+    <t>estimated_size</t>
+  </si>
+  <si>
+    <t>extrachrom_elements</t>
+  </si>
+  <si>
+    <t>health_state</t>
+  </si>
+  <si>
+    <t>host</t>
+  </si>
+  <si>
+    <t>host_taxid</t>
+  </si>
+  <si>
+    <t>indoor_surf</t>
+  </si>
+  <si>
+    <t>isolation_source</t>
+  </si>
+  <si>
     <t>locus_tag_prefix</t>
   </si>
   <si>
-    <t>strain</t>
-  </si>
-  <si>
-    <t>abs_air_humidity</t>
-  </si>
-  <si>
-    <t>air_temp</t>
-  </si>
-  <si>
-    <t>build_occup_type</t>
-  </si>
-  <si>
-    <t>building_setting</t>
-  </si>
-  <si>
-    <t>carb_dioxide</t>
-  </si>
-  <si>
-    <t>collection_date</t>
-  </si>
-  <si>
-    <t>env_biome</t>
-  </si>
-  <si>
-    <t>env_feature</t>
-  </si>
-  <si>
-    <t>env_material</t>
-  </si>
-  <si>
-    <t>filter_type</t>
-  </si>
-  <si>
-    <t>geo_loc_name</t>
-  </si>
-  <si>
-    <t>heat_cool_type</t>
-  </si>
-  <si>
-    <t>indoor_space</t>
-  </si>
-  <si>
-    <t>isol_growth_condt</t>
-  </si>
-  <si>
-    <t>lat_lon</t>
-  </si>
-  <si>
-    <t>light_type</t>
-  </si>
-  <si>
-    <t>num_replicons</t>
-  </si>
-  <si>
-    <t>occup_samp</t>
-  </si>
-  <si>
-    <t>occupant_dens_samp</t>
-  </si>
-  <si>
-    <t>organism_count</t>
-  </si>
-  <si>
-    <t>ref_biomaterial</t>
-  </si>
-  <si>
-    <t>rel_air_humidity</t>
-  </si>
-  <si>
-    <t>space_typ_state</t>
-  </si>
-  <si>
-    <t>typ_occupant_dens</t>
-  </si>
-  <si>
-    <t>ventilation_type</t>
+    <t>pathogenicity</t>
+  </si>
+  <si>
+    <t>rel_to_oxygen</t>
+  </si>
+  <si>
+    <t>samp_collect_device</t>
+  </si>
+  <si>
+    <t>samp_mat_process</t>
+  </si>
+  <si>
+    <t>samp_size</t>
+  </si>
+  <si>
+    <t>samp_sort_meth</t>
+  </si>
+  <si>
+    <t>samp_vol_we_dna_ext</t>
+  </si>
+  <si>
+    <t>source_material_id</t>
+  </si>
+  <si>
+    <t>subspecf_gen_lin</t>
+  </si>
+  <si>
+    <t>substructure_type</t>
+  </si>
+  <si>
+    <t>surf_air_cont</t>
+  </si>
+  <si>
+    <t>surf_humidity</t>
+  </si>
+  <si>
+    <t>surf_material</t>
+  </si>
+  <si>
+    <t>surf_moisture</t>
+  </si>
+  <si>
+    <t>surf_moisture_ph</t>
+  </si>
+  <si>
+    <t>surf_temp</t>
+  </si>
+  <si>
+    <t>trophic_level</t>
   </si>
 </sst>
 </file>
@@ -1025,77 +1457,77 @@
     <col min="1" max="201" width="20.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:60">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:33">
+    <row r="2" spans="1:60">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:33" s="3" customFormat="1">
+    <row r="3" spans="1:60" s="3" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:33" s="4" customFormat="1">
+    <row r="4" spans="1:60" s="4" customFormat="1">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:33" s="5" customFormat="1">
+    <row r="5" spans="1:60" s="5" customFormat="1">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:60">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:60">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:33">
+    <row r="8" spans="1:60">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:33">
+    <row r="9" spans="1:60">
       <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10" spans="1:60">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:33">
+    <row r="11" spans="1:60">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:33">
+    <row r="12" spans="1:60">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:33">
+    <row r="13" spans="1:60">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:33">
+    <row r="14" spans="1:60">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:33">
+    <row r="15" spans="1:60">
       <c r="A15" s="7" t="s">
         <v>14</v>
       </c>
@@ -1114,7 +1546,7 @@
       <c r="F15" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H15" s="7" t="s">
@@ -1192,8 +1624,89 @@
       <c r="AF15" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="AG15" s="7" t="s">
+      <c r="AG15" s="8" t="s">
         <v>46</v>
+      </c>
+      <c r="AH15" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI15" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ15" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK15" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL15" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM15" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN15" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO15" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP15" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AQ15" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR15" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS15" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT15" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU15" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="AV15" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AW15" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX15" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="AY15" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="AZ15" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="BA15" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="BB15" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="BC15" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="BD15" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="BE15" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="BF15" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="BG15" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BH15" s="8" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/ykodama/ddbj_packages/excel/MIGS.ba.built.4.0.xlsx
+++ b/ykodama/ddbj_packages/excel/MIGS.ba.built.4.0.xlsx
@@ -457,11 +457,24 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t>Name of source institute and unique culture identifier. See the description for the proper format and list of allowed institutes, http://www.insdc.org/controlled-vocabulary-culturecollection-qualifier</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AI15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t>temperature to which a given parcel of humid air must be cooled, at constant barometric pressure, for water vapor to condense into water.</t>
         </r>
       </text>
     </comment>
-    <comment ref="AI15" authorId="0">
+    <comment ref="AJ15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -474,7 +487,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ15" authorId="0">
+    <comment ref="AK15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -487,7 +500,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AK15" authorId="0">
+    <comment ref="AL15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -500,7 +513,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AL15" authorId="0">
+    <comment ref="AM15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -513,7 +526,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AM15" authorId="0">
+    <comment ref="AN15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -526,7 +539,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AN15" authorId="0">
+    <comment ref="AO15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -539,7 +552,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AO15" authorId="0">
+    <comment ref="AP15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -552,7 +565,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AP15" authorId="0">
+    <comment ref="AQ15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -565,7 +578,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AQ15" authorId="0">
+    <comment ref="AR15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -578,7 +591,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AR15" authorId="0">
+    <comment ref="AS15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -591,7 +604,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AS15" authorId="0">
+    <comment ref="AT15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -604,7 +617,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AT15" authorId="0">
+    <comment ref="AU15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -617,7 +630,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AU15" authorId="0">
+    <comment ref="AV15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -630,7 +643,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AV15" authorId="0">
+    <comment ref="AW15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -643,7 +656,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AW15" authorId="0">
+    <comment ref="AX15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -656,7 +669,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AX15" authorId="0">
+    <comment ref="AY15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -669,7 +682,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AY15" authorId="0">
+    <comment ref="AZ15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -682,7 +695,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AZ15" authorId="0">
+    <comment ref="BA15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -695,7 +708,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BA15" authorId="0">
+    <comment ref="BB15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -708,7 +721,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BB15" authorId="0">
+    <comment ref="BC15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -721,7 +734,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BC15" authorId="0">
+    <comment ref="BD15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -734,7 +747,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BD15" authorId="0">
+    <comment ref="BE15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -747,7 +760,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BE15" authorId="0">
+    <comment ref="BF15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -760,7 +773,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BF15" authorId="0">
+    <comment ref="BG15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -773,7 +786,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BG15" authorId="0">
+    <comment ref="BH15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -786,7 +799,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BH15" authorId="0">
+    <comment ref="BI15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -804,7 +817,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t xml:space="preserve"># This is a submission template for batch deposit of 'MIGS: cultured bacteria/archaea, built; version 4.0' samples to the DDBJ BioSample database (http://trace.ddbj.nig.ac.jp/biosample)._x000D_
 </t>
@@ -959,6 +972,9 @@
   </si>
   <si>
     <t>biotic_relationship</t>
+  </si>
+  <si>
+    <t>culture_collection</t>
   </si>
   <si>
     <t>dew_point</t>
@@ -1457,77 +1473,77 @@
     <col min="1" max="201" width="20.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60">
+    <row r="1" spans="1:61">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:60">
+    <row r="2" spans="1:61">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:60" s="3" customFormat="1">
+    <row r="3" spans="1:61" s="3" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:60" s="4" customFormat="1">
+    <row r="4" spans="1:61" s="4" customFormat="1">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:60" s="5" customFormat="1">
+    <row r="5" spans="1:61" s="5" customFormat="1">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:60">
+    <row r="6" spans="1:61">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:60">
+    <row r="7" spans="1:61">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:60">
+    <row r="8" spans="1:61">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:60">
+    <row r="9" spans="1:61">
       <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:60">
+    <row r="10" spans="1:61">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:60">
+    <row r="11" spans="1:61">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:60">
+    <row r="12" spans="1:61">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:60">
+    <row r="13" spans="1:61">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:60">
+    <row r="14" spans="1:61">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:60">
+    <row r="15" spans="1:61">
       <c r="A15" s="7" t="s">
         <v>14</v>
       </c>
@@ -1707,6 +1723,9 @@
       </c>
       <c r="BH15" s="8" t="s">
         <v>73</v>
+      </c>
+      <c r="BI15" s="8" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/ykodama/ddbj_packages/excel/MIGS.ba.built.4.0.xlsx
+++ b/ykodama/ddbj_packages/excel/MIGS.ba.built.4.0.xlsx
@@ -457,7 +457,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Name of source institute and unique culture identifier. See the description for the proper format and list of allowed institutes, http://www.insdc.org/controlled-vocabulary-culturecollection-qualifier</t>
+          <t>temperature to which a given parcel of humid air must be cooled, at constant barometric pressure, for water vapor to condense into water.</t>
         </r>
       </text>
     </comment>
@@ -470,7 +470,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>temperature to which a given parcel of humid air must be cooled, at constant barometric pressure, for water vapor to condense into water.</t>
+          <t>Traits like antibiotic resistance/xenobiotic degration phenotypes/converting phage genes</t>
         </r>
       </text>
     </comment>
@@ -483,7 +483,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Traits like antibiotic resistance/xenobiotic degration phenotypes/converting phage genes</t>
+          <t>Estimated size of genome</t>
         </r>
       </text>
     </comment>
@@ -496,7 +496,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Estimated size of genome</t>
+          <t>Plasmids that have significance phenotypic consequence</t>
         </r>
       </text>
     </comment>
@@ -509,7 +509,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Plasmids that have significance phenotypic consequence</t>
+          <t>Health or disease status of sample at time of collection</t>
         </r>
       </text>
     </comment>
@@ -522,7 +522,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Health or disease status of sample at time of collection</t>
+          <t>The natural (as opposed to laboratory) host to the organism from which the sample was obtained. Use the full taxonomic name, eg, "Homo sapiens".</t>
         </r>
       </text>
     </comment>
@@ -535,7 +535,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>The natural (as opposed to laboratory) host to the organism from which the sample was obtained. Use the full taxonomic name, eg, "Homo sapiens".</t>
+          <t>NCBI taxonomy ID of the host, e.g. 9606</t>
         </r>
       </text>
     </comment>
@@ -548,7 +548,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>NCBI taxonomy ID of the host, e.g. 9606</t>
+          <t>type of indoor surface</t>
         </r>
       </text>
     </comment>
@@ -561,7 +561,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>type of indoor surface</t>
+          <t>Describes the physical, environmental and/or local geographical source of the biological sample from which the sample was derived.</t>
         </r>
       </text>
     </comment>
@@ -574,7 +574,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Describes the physical, environmental and/or local geographical source of the biological sample from which the sample was derived.</t>
+          <t>A locus tag prefix required for an annotated genome, http://www.ddbj.nig.ac.jp/sub/locus_tag-e.html</t>
         </r>
       </text>
     </comment>
@@ -587,7 +587,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>A locus tag prefix required for an annotated genome, http://www.ddbj.nig.ac.jp/sub/locus_tag-e.html</t>
+          <t>To what is the entity pathogenic</t>
         </r>
       </text>
     </comment>
@@ -600,7 +600,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>To what is the entity pathogenic</t>
+          <t>Aerobic or anaerobic</t>
         </r>
       </text>
     </comment>
@@ -613,7 +613,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Aerobic or anaerobic</t>
+          <t>Method or device employed for collecting sample</t>
         </r>
       </text>
     </comment>
@@ -626,7 +626,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Method or device employed for collecting sample</t>
+          <t>Processing applied to the sample during or after isolation</t>
         </r>
       </text>
     </comment>
@@ -639,7 +639,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Processing applied to the sample during or after isolation</t>
+          <t>Amount or size of sample (volume, mass or area) that was collected</t>
         </r>
       </text>
     </comment>
@@ -652,7 +652,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Amount or size of sample (volume, mass or area) that was collected</t>
+          <t>method by which samples are sorted</t>
         </r>
       </text>
     </comment>
@@ -665,7 +665,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>method by which samples are sorted</t>
+          <t>volume (mL) or weight (g) of sample processed for DNA extraction</t>
         </r>
       </text>
     </comment>
@@ -678,7 +678,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>volume (mL) or weight (g) of sample processed for DNA extraction</t>
+          <t>unique identifier assigned to a material sample used for extracting nucleic acids, and subsequent sequencing. The identifier can refer either to the original material collected or to any derived sub-samples.</t>
         </r>
       </text>
     </comment>
@@ -691,7 +691,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>unique identifier assigned to a material sample used for extracting nucleic acids, and subsequent sequencing. The identifier can refer either to the original material collected or to any derived sub-samples.</t>
+          <t>Information about the genetic distinctness of the lineage (eg., biovar, serovar)</t>
         </r>
       </text>
     </comment>
@@ -704,7 +704,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Information about the genetic distinctness of the lineage (eg., biovar, serovar)</t>
+          <t>substructure or under building is that largely hidden section of the building which is built off the foundations to the ground floor level</t>
         </r>
       </text>
     </comment>
@@ -717,7 +717,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>substructure or under building is that largely hidden section of the building which is built off the foundations to the ground floor level</t>
+          <t>contaminant identified on surface</t>
         </r>
       </text>
     </comment>
@@ -730,7 +730,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>contaminant identified on surface</t>
+          <t>surfaces: water activity as a function of air and material moisture</t>
         </r>
       </text>
     </comment>
@@ -743,7 +743,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>surfaces: water activity as a function of air and material moisture</t>
+          <t>surface materials at the point of sampling</t>
         </r>
       </text>
     </comment>
@@ -756,7 +756,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>surface materials at the point of sampling</t>
+          <t>water held on a surface</t>
         </r>
       </text>
     </comment>
@@ -769,7 +769,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>water held on a surface</t>
+          <t>pH measurement of surface</t>
         </r>
       </text>
     </comment>
@@ -782,24 +782,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>pH measurement of surface</t>
+          <t>temperature of the surface at the time of sampling</t>
         </r>
       </text>
     </comment>
     <comment ref="BH15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>temperature of the surface at the time of sampling</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="BI15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -817,7 +804,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t xml:space="preserve"># This is a submission template for batch deposit of 'MIGS: cultured bacteria/archaea, built; version 4.0' samples to the DDBJ BioSample database (http://trace.ddbj.nig.ac.jp/biosample)._x000D_
 </t>
@@ -972,9 +959,6 @@
   </si>
   <si>
     <t>biotic_relationship</t>
-  </si>
-  <si>
-    <t>culture_collection</t>
   </si>
   <si>
     <t>dew_point</t>
@@ -1473,77 +1457,77 @@
     <col min="1" max="201" width="20.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61">
+    <row r="1" spans="1:60">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:61">
+    <row r="2" spans="1:60">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:61" s="3" customFormat="1">
+    <row r="3" spans="1:60" s="3" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:61" s="4" customFormat="1">
+    <row r="4" spans="1:60" s="4" customFormat="1">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:61" s="5" customFormat="1">
+    <row r="5" spans="1:60" s="5" customFormat="1">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:61">
+    <row r="6" spans="1:60">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:61">
+    <row r="7" spans="1:60">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:61">
+    <row r="8" spans="1:60">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:61">
+    <row r="9" spans="1:60">
       <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:61">
+    <row r="10" spans="1:60">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:61">
+    <row r="11" spans="1:60">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:61">
+    <row r="12" spans="1:60">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:61">
+    <row r="13" spans="1:60">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:61">
+    <row r="14" spans="1:60">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:61">
+    <row r="15" spans="1:60">
       <c r="A15" s="7" t="s">
         <v>14</v>
       </c>
@@ -1723,9 +1707,6 @@
       </c>
       <c r="BH15" s="8" t="s">
         <v>73</v>
-      </c>
-      <c r="BI15" s="8" t="s">
-        <v>74</v>
       </c>
     </row>
   </sheetData>
